--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28BB57B-AEB3-4881-9037-486B40A629CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24713620-7A86-4BA0-BB9D-B4E59AD98F66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>what</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>Hyomyoung Scholarship</t>
+  </si>
+  <si>
+    <t>AccessSTEM Resume contest winners Award</t>
+  </si>
+  <si>
+    <t>Dec. 2019</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>AccessComputing, University of Washington</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1040,61 +1052,61 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2019</v>
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1500</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>2017</v>
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
@@ -1102,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1113,58 +1125,58 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>2017</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1175,13 +1187,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1189,71 +1201,85 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2016</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
     </row>

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24713620-7A86-4BA0-BB9D-B4E59AD98F66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B694A82B-2895-4EC2-A2E2-3C5AC38BE06A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>what</t>
   </si>
@@ -106,9 +106,6 @@
     <t>National Institute for International Education, Korean Government</t>
   </si>
   <si>
-    <t>Cengage Best Doctoral Proposal Fellowship</t>
-  </si>
-  <si>
     <t>Madison, WI</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Apr. 2019</t>
   </si>
   <si>
-    <t>The First International Conference on Quantitative Ethnography (in partnership with Cengage)</t>
-  </si>
-  <si>
     <t>ACM Student Research Competition Travel Award</t>
   </si>
   <si>
@@ -173,6 +167,27 @@
   </si>
   <si>
     <t>AccessComputing, University of Washington</t>
+  </si>
+  <si>
+    <t>Mar. 2017</t>
+  </si>
+  <si>
+    <t>CSUN Conference Travel Award</t>
+  </si>
+  <si>
+    <t>Sponsored by The National Science Foundation (NSF).</t>
+  </si>
+  <si>
+    <t>Best Doctoral Proposal Fellowship</t>
+  </si>
+  <si>
+    <t>Sponsored by Cengage.</t>
+  </si>
+  <si>
+    <t>The First International Conference on Quantitative Ethnography</t>
+  </si>
+  <si>
+    <t>Sep. 2017</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1052,30 +1067,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
+      <c r="E2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
+      <c r="E3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
@@ -1097,16 +1118,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
@@ -1139,58 +1160,61 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
-        <v>2017</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>2017</v>
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>2017</v>
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2017</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -1201,13 +1225,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -1215,72 +1239,86 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" s="2" t="s">
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>2016</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>36</v>
+      <c r="D18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B694A82B-2895-4EC2-A2E2-3C5AC38BE06A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C17524-ACB1-487F-9AAB-E5634CF56373}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5" yWindow="5" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>what</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>Sep. 2017</t>
+  </si>
+  <si>
+    <t>2020 NextGen Leaders</t>
+  </si>
+  <si>
+    <t>Feb. 2020 - Jul. 2020</t>
+  </si>
+  <si>
+    <t>Disability:IN</t>
+  </si>
+  <si>
+    <t>Alexandria, VA</t>
   </si>
 </sst>
 </file>
@@ -1040,11 +1052,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -1067,81 +1077,81 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>2019</v>
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1500</v>
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>2017</v>
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
@@ -1149,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1160,75 +1170,75 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2015</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>2017</v>
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>2017</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1239,13 +1249,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -1253,71 +1263,85 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>2016</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C17524-ACB1-487F-9AAB-E5634CF56373}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11514720-A93D-450E-94A9-7CF956456D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5" yWindow="5" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>what</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>Alexandria, VA</t>
+  </si>
+  <si>
+    <t>Sep. 2020</t>
+  </si>
+  <si>
+    <t>Qualcomm Scholarship</t>
+  </si>
+  <si>
+    <t>ACM Richard Tapia Celebration of Diversity in Computing Conference</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>Selected as one of the outstanding doctoral consortium proposals.</t>
   </si>
 </sst>
 </file>
@@ -1052,9 +1067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -1077,95 +1094,98 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2019</v>
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1500</v>
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2017</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
@@ -1173,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1184,75 +1204,75 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2015</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>2017</v>
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>2017</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1263,13 +1283,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1277,71 +1297,85 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>2016</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11514720-A93D-450E-94A9-7CF956456D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9881F00-CEE3-4249-ACCF-85BE77E5DC76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>what</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Selected as one of the outstanding doctoral consortium proposals.</t>
+  </si>
+  <si>
+    <t>Fully sponsored by Korean Government for the Master's research.</t>
+  </si>
+  <si>
+    <t>Funding amount: $70,000 USD.</t>
   </si>
 </sst>
 </file>
@@ -1067,11 +1073,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -1323,7 +1327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1364,18 +1368,26 @@
       <c r="D19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9881F00-CEE3-4249-ACCF-85BE77E5DC76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B620B153-4930-4A45-BD94-19E0C9C1F21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>what</t>
   </si>
@@ -64,21 +64,6 @@
     <t>Lake View Terrace, CA</t>
   </si>
   <si>
-    <t>Academic Scholarship for Doctoral Research</t>
-  </si>
-  <si>
-    <t>2016 - 2018</t>
-  </si>
-  <si>
-    <t>ChungInwook Scholarship Foundation</t>
-  </si>
-  <si>
-    <t>2014 - 2016</t>
-  </si>
-  <si>
-    <t>Future Interdisciplinary Study of Global Korea Scholarship for Master’s Research</t>
-  </si>
-  <si>
     <t>Academic Achievement Scholarship</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
     <t>Summer Tuition Assistance Funding</t>
   </si>
   <si>
-    <t>National Institute for International Education, Korean Government</t>
-  </si>
-  <si>
     <t>Madison, WI</t>
   </si>
   <si>
@@ -215,12 +197,6 @@
   </si>
   <si>
     <t>Selected as one of the outstanding doctoral consortium proposals.</t>
-  </si>
-  <si>
-    <t>Fully sponsored by Korean Government for the Master's research.</t>
-  </si>
-  <si>
-    <t>Funding amount: $70,000 USD.</t>
   </si>
 </sst>
 </file>
@@ -1073,13 +1049,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,72 +1072,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1178,21 +1154,21 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1220,175 +1196,139 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>2016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>2016</v>
-      </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B620B153-4930-4A45-BD94-19E0C9C1F21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5FECCA-90F7-47CA-8399-5CAC3735CECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>what</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Selected as one of the outstanding doctoral consortium proposals.</t>
+  </si>
+  <si>
+    <t>2015, 2017</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1172,8 +1175,8 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>2017</v>
+      <c r="B8" t="s">
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1184,75 +1187,75 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>2015</v>
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>2017</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>2017</v>
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1263,13 +1266,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1277,57 +1280,43 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>2016</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>2016</v>
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
         <v>29</v>
       </c>
     </row>

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5FECCA-90F7-47CA-8399-5CAC3735CECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9105A9AB-F18C-4C71-AAE2-319A1DFACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>what</t>
   </si>
@@ -43,9 +43,6 @@
     <t>University Park, PA</t>
   </si>
   <si>
-    <t>Sungkyunkwan University</t>
-  </si>
-  <si>
     <t>Andrew V. Kozak Memorial Fellowship</t>
   </si>
   <si>
@@ -62,12 +59,6 @@
   </si>
   <si>
     <t>Lake View Terrace, CA</t>
-  </si>
-  <si>
-    <t>Academic Achievement Scholarship</t>
-  </si>
-  <si>
-    <t>2009 - 2013</t>
   </si>
   <si>
     <t>Graduate Assistantship</t>
@@ -1052,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1077,78 +1068,78 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -1159,24 +1150,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1187,64 +1178,64 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2017</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -1252,13 +1243,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -1266,13 +1257,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1280,44 +1271,30 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>2016</v>
       </c>
       <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9105A9AB-F18C-4C71-AAE2-319A1DFACCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F29B36-935F-4DAF-B812-D01F105AD717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>what</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>2015, 2017</t>
+  </si>
+  <si>
+    <t>Awarded $1,500 for research contribution to public education.</t>
+  </si>
+  <si>
+    <t>Selected as one of the leaders in the U.S. for diversity.</t>
   </si>
 </sst>
 </file>
@@ -1096,6 +1102,9 @@
       <c r="D3" t="s">
         <v>50</v>
       </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1144,8 +1153,8 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
-        <v>1500</v>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
